--- a/biology/Médecine/Crête_du_grand_fessier/Crête_du_grand_fessier.xlsx
+++ b/biology/Médecine/Crête_du_grand_fessier/Crête_du_grand_fessier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_du_grand_fessier</t>
+          <t>Crête_du_grand_fessier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La crête du grand fessier est un relief osseux situé sur la face postérieure de l'extrémité supérieure du fémur.
 C'est le prolongement latéral des trois prolongements ascendants de la ligne âpre qui s'étend presque verticalement jusqu'à la base du grand trochanter.
-L'inconstant troisième trochanter peut se trouver à son sommet[1].
-Elle peut dans certain cas prendre la forme d'une dépression allongée[2] plutôt qu'une crête.
-Il sert de site d'insertion principal pour le muscle grand glutéal[2].
+L'inconstant troisième trochanter peut se trouver à son sommet.
+Elle peut dans certain cas prendre la forme d'une dépression allongée plutôt qu'une crête.
+Il sert de site d'insertion principal pour le muscle grand glutéal.
 </t>
         </is>
       </c>
